--- a/calculator/calc.xlsx
+++ b/calculator/calc.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sean10/Code/Algorithm_code/calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA7644-E193-6D40-BE9A-602A9E685E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D07F33-A9C0-5B40-8CBE-DC6118E00665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="680" windowWidth="28040" windowHeight="17380" xr2:uid="{F00D84C1-9398-4A43-8074-57B35876095E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19820" activeTab="1" xr2:uid="{F00D84C1-9398-4A43-8074-57B35876095E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="元数据计算" sheetId="1" r:id="rId1"/>
+    <sheet name="方案对比" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="176">
   <si>
     <t>nvme容量</t>
   </si>
@@ -67,13 +67,590 @@
   </si>
   <si>
     <t>900.00 TB</t>
+  </si>
+  <si>
+    <t>业务</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>HDD实际可用容量</t>
+  </si>
+  <si>
+    <t>对象大小</t>
+  </si>
+  <si>
+    <t>对象数量</t>
+  </si>
+  <si>
+    <t>聚合大小</t>
+  </si>
+  <si>
+    <t>HDD DB元数据大小</t>
+  </si>
+  <si>
+    <t>HDD DB对象数量</t>
+  </si>
+  <si>
+    <t>HDD DB大小</t>
+  </si>
+  <si>
+    <t>聚合池元数据单位大小</t>
+  </si>
+  <si>
+    <t>聚合池精简元数据单位大小</t>
+  </si>
+  <si>
+    <t>聚合池原始大小</t>
+  </si>
+  <si>
+    <t>聚合池大小</t>
+  </si>
+  <si>
+    <t>元数据池单位大小</t>
+  </si>
+  <si>
+    <t>元数据池大小</t>
+  </si>
+  <si>
+    <t>元数据副本数</t>
+  </si>
+  <si>
+    <t>所需NVMe容量</t>
+  </si>
+  <si>
+    <t>SMR的CMR容量</t>
+  </si>
+  <si>
+    <t>HDD池数据占比</t>
+  </si>
+  <si>
+    <t>单盘存放完整对象元数据数量</t>
+  </si>
+  <si>
+    <t>归档元数据数量占比</t>
+  </si>
+  <si>
+    <t>cephfs</t>
+  </si>
+  <si>
+    <t>654.84 TiB</t>
+  </si>
+  <si>
+    <t>100 KiB</t>
+  </si>
+  <si>
+    <t>7031250000个</t>
+  </si>
+  <si>
+    <t>8 MiB</t>
+  </si>
+  <si>
+    <t>1.5 KiB</t>
+  </si>
+  <si>
+    <t>858306885个</t>
+  </si>
+  <si>
+    <t>1.20 TiB</t>
+  </si>
+  <si>
+    <t>600 B</t>
+  </si>
+  <si>
+    <t>11.51 TiB</t>
+  </si>
+  <si>
+    <t>24.22 TiB</t>
+  </si>
+  <si>
+    <t>8.19 TiB</t>
+  </si>
+  <si>
+    <t>750.33 TiB</t>
+  </si>
+  <si>
+    <t>8056640625个</t>
+  </si>
+  <si>
+    <t>22 MiB</t>
+  </si>
+  <si>
+    <t>13.19 TiB</t>
+  </si>
+  <si>
+    <t>27.58 TiB</t>
+  </si>
+  <si>
+    <t>1.00 B</t>
+  </si>
+  <si>
+    <t>72 B</t>
+  </si>
+  <si>
+    <t>1.58 TiB</t>
+  </si>
+  <si>
+    <t>rgw</t>
+  </si>
+  <si>
+    <t>72B</t>
+  </si>
+  <si>
+    <t>33.76 TiB</t>
+  </si>
+  <si>
+    <t>7.03 TiB</t>
+  </si>
+  <si>
+    <t>864.38 GiB</t>
+  </si>
+  <si>
+    <t>114440918个</t>
+  </si>
+  <si>
+    <t>163.71 GiB</t>
+  </si>
+  <si>
+    <t>300 B</t>
+  </si>
+  <si>
+    <t>3.52 TiB</t>
+  </si>
+  <si>
+    <t>方案(100K图片, 单节点24盘 30T SMR)</t>
+  </si>
+  <si>
+    <t>额外nvme IOPS压力</t>
+  </si>
+  <si>
+    <t>额外hdd IOPS压力</t>
+  </si>
+  <si>
+    <t>元数据空间需求</t>
+  </si>
+  <si>
+    <t>0. 当前方案</t>
+  </si>
+  <si>
+    <t>1. 聚合池 rocksdb将L4层放到HDD</t>
+  </si>
+  <si>
+    <t>重构</t>
+  </si>
+  <si>
+    <t>15.97 TiB</t>
+  </si>
+  <si>
+    <t>1.53 TiB</t>
+  </si>
+  <si>
+    <t>重构单元是对象, 即海量1.5K/600B的onode的重构动作
+读: 如果以bluefs读缓存 扛 重构读
+写: 经由nvme的L0-L3 rocksdb扛, 也还好.</t>
+  </si>
+  <si>
+    <t>工作量</t>
+  </si>
+  <si>
+    <t>工作量小</t>
+  </si>
+  <si>
+    <t>1. 需要精细化核算预计后端HDD需容纳的元数据空间.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rocksdb等LSM压缩</t>
+  </si>
+  <si>
+    <t>元数据合并后的聚合对象的压缩</t>
+  </si>
+  <si>
+    <t>1. CMR空间需求, 不够弹性. 大概率需要单独建池</t>
+  </si>
+  <si>
+    <t>不涉及, 仅rocksdb的读写compact过程</t>
+  </si>
+  <si>
+    <t>仅rocksdb的读写compact过程, 如果业务顺序化</t>
+  </si>
+  <si>
+    <t>1. 将rocksdb的多介质分散部署, 打通2个bluefs对接到rocksdb的不同层级
+2. 确保rocksdb的写入, key的compact明确是以时间序. 确保热数据不会降到L4层. 
+2.1 引入rocksdb的user defined timestamp特性
+2.2 key前缀拼接时间格式等.(但是业务传入不带时间时, 就需要单独开发索引来提高查找key速度)</t>
+  </si>
+  <si>
+    <t>720.00 TB</t>
+  </si>
+  <si>
+    <t>600.27 TiB</t>
+  </si>
+  <si>
+    <t>6.55 TiB</t>
+  </si>
+  <si>
+    <t>6445312500个</t>
+  </si>
+  <si>
+    <t>686645508个</t>
+  </si>
+  <si>
+    <t>982.25 GiB</t>
+  </si>
+  <si>
+    <t>10.55 TiB</t>
+  </si>
+  <si>
+    <t>1.27 TiB</t>
+  </si>
+  <si>
+    <t>12.78 TiB</t>
+  </si>
+  <si>
+    <t>27.01 TiB</t>
+  </si>
+  <si>
+    <t>5.28 TiB</t>
+  </si>
+  <si>
+    <t>7.50 TiB</t>
+  </si>
+  <si>
+    <t>HDD池上对象聚合池大小</t>
+  </si>
+  <si>
+    <t>4.73 TiB</t>
+  </si>
+  <si>
+    <t>聚合池原始大小占比</t>
+  </si>
+  <si>
+    <t>聚合池大小占比</t>
+  </si>
+  <si>
+    <t>元数据池大小占比</t>
+  </si>
+  <si>
+    <t>NVMe聚合池预留空间</t>
+  </si>
+  <si>
+    <t>100 GiB</t>
+  </si>
+  <si>
+    <t>NVMe剩余供聚合池用空间</t>
+  </si>
+  <si>
+    <t>NVMe剩余供聚合池用对象数量</t>
+  </si>
+  <si>
+    <t>2.26 TiB</t>
+  </si>
+  <si>
+    <t>7.54 TiB</t>
+  </si>
+  <si>
+    <t>544054631个</t>
+  </si>
+  <si>
+    <t>1429849790个</t>
+  </si>
+  <si>
+    <t>-4.62 TiB</t>
+  </si>
+  <si>
+    <t>-3212208176个</t>
+  </si>
+  <si>
+    <t>667.90 GiB</t>
+  </si>
+  <si>
+    <t>-139931682个</t>
+  </si>
+  <si>
+    <t>HDD DB大小占比</t>
+  </si>
+  <si>
+    <t>1. rocksdb开启压缩</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>1. 预计有较大概率能压掉50%以上, 因为目前onode属性中不少为空</t>
+  </si>
+  <si>
+    <t>优化前元数据池大小占比</t>
+  </si>
+  <si>
+    <t>优化前HDD DB大小占比</t>
+  </si>
+  <si>
+    <t>RocksDB压缩比</t>
+  </si>
+  <si>
+    <t>3.84 TiB</t>
+  </si>
+  <si>
+    <t>9.82 TiB</t>
+  </si>
+  <si>
+    <t>原始所需NVMe容量</t>
+  </si>
+  <si>
+    <t>48.15 TiB</t>
+  </si>
+  <si>
+    <t>22.06 TiB</t>
+  </si>
+  <si>
+    <t>33.25 TiB</t>
+  </si>
+  <si>
+    <t>NVMe调优比例</t>
+  </si>
+  <si>
+    <t>2+2</t>
+  </si>
+  <si>
+    <t>-1.11 TiB</t>
+  </si>
+  <si>
+    <t>2.41 TiB</t>
+  </si>
+  <si>
+    <t>调优元数据副本数</t>
+  </si>
+  <si>
+    <t>5.32 TiB</t>
+  </si>
+  <si>
+    <t>-1293960408个</t>
+  </si>
+  <si>
+    <t>260896210个</t>
+  </si>
+  <si>
+    <t>元数据池精简大小</t>
+  </si>
+  <si>
+    <t>4.80 TiB</t>
+  </si>
+  <si>
+    <t>589.35 GiB</t>
+  </si>
+  <si>
+    <t>12.28 TiB</t>
+  </si>
+  <si>
+    <t>8.84 TiB</t>
+  </si>
+  <si>
+    <t>3.49 TiB</t>
+  </si>
+  <si>
+    <t>9.38 TiB</t>
+  </si>
+  <si>
+    <t>2.65 TiB</t>
+  </si>
+  <si>
+    <t>6.74 TiB</t>
+  </si>
+  <si>
+    <t>2921635546个</t>
+  </si>
+  <si>
+    <t>5.84 TiB</t>
+  </si>
+  <si>
+    <t>8.56 TiB</t>
+  </si>
+  <si>
+    <t>6.59 TiB</t>
+  </si>
+  <si>
+    <t>5.98 TiB</t>
+  </si>
+  <si>
+    <t>2398651449个</t>
+  </si>
+  <si>
+    <t>11193706763个</t>
+  </si>
+  <si>
+    <t>1002421501个</t>
+  </si>
+  <si>
+    <t>3.84 TB</t>
+  </si>
+  <si>
+    <t>1.59 TiB</t>
+  </si>
+  <si>
+    <t>177393758个</t>
+  </si>
+  <si>
+    <t>1.17 TiB</t>
+  </si>
+  <si>
+    <t>-52795974个</t>
+  </si>
+  <si>
+    <t>-22063989个</t>
+  </si>
+  <si>
+    <t>2. 聚合池&amp;&amp;业务元数据归档到SMR数据区</t>
+  </si>
+  <si>
+    <t>工作量大</t>
+  </si>
+  <si>
+    <t>重构依旧按聚合对象为单位重构</t>
+  </si>
+  <si>
+    <t>元数据跟随聚合对象, 整体扩容hdd即可. Hdd得盘率下降仅1%</t>
+  </si>
+  <si>
+    <t>1. 可以不侵入式修改, 将聚合池的索引开销借助LSM能力提供</t>
+  </si>
+  <si>
+    <t>132 MiB</t>
+  </si>
+  <si>
+    <t>21.26 TiB</t>
+  </si>
+  <si>
+    <t>1.97 TiB</t>
+  </si>
+  <si>
+    <t>383169428个</t>
+  </si>
+  <si>
+    <t>2.69 TiB</t>
+  </si>
+  <si>
+    <t>超大聚合对象</t>
+  </si>
+  <si>
+    <t>比如22M时, nvme单节点总占用1TiB, 优化到220MiB, 即可下降到100GiB</t>
+  </si>
+  <si>
+    <t>验证,分析. 之前64MiB问题不大. 
+可能需要考虑当业务flush无法1s内完成时,一些超时处理, 需能够妥善处理</t>
+  </si>
+  <si>
+    <t>低延时2+2</t>
+  </si>
+  <si>
+    <t>1. 同等冗余能力, 提高得盘率</t>
+  </si>
+  <si>
+    <t>1. 接近3副本延时</t>
+  </si>
+  <si>
+    <t>1. 低延时需求: RDMA/EC客户端直写, 事务元数据以及数据op 一次op写入</t>
+  </si>
+  <si>
+    <t>1. 针对小IO, 以及追加. 按现有部分读能力, 预计能运行
+调整阈值, 选择部分OP大小按3副本写部分分片.</t>
+  </si>
+  <si>
+    <t>单独可叠加特性</t>
+  </si>
+  <si>
+    <t>32.45 TiB</t>
+  </si>
+  <si>
+    <t>160130507个</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">牺牲归档数据的随机读性能, 从50ms下降到秒级
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cephfs和rgw整体nvme所需空间占用下降80%+,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下降到4-5TB左右, 
+1. cephfs: 聚合对象元数据 + 文件系统元数据, 均进行归档处理, 可下降到接近1个3.84TB+960G等.
+   1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叠加2+2 或者 超大聚合对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(132MiB), 下降到1块 3.84TB nvme
+2. rgw: 聚合对象元数据 + 2+2优化, 可从33TiB下降到1个7.68TB.
+   1. 叠加元数据归档, 预计类似文件系统所需开销. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再叠加2+2 或 超大聚合对象(132MiB), 下降到1块 3.84TB nvme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+性能: 原本读一个对象延时预计 ssd索引读 300us + hdd随机读延时, 按目前假设50ms.
+预计下降到秒级: ssd索引找到omap对应的onode位置(20ms+级, rocksdb的多次布隆过滤器onode未命中, 但确认对象未删除存在, 加载多个sst文件, 最终从最下层找到omap)
+            从smr盘读取完整聚合对象, 从其中元数据区decode出onode, 再借助读缓存. 直接返回数据. 50ms+</t>
+    </r>
+  </si>
+  <si>
+    <t>24块30T, 100KB图片
+cephfs需22 TiB nvme
+rgw需33 TiB nvme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,13 +664,39 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,9 +711,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,74 +1077,2718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8937B65-3A97-474C-848C-2598E879ECE5}">
-  <dimension ref="B1:D2"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
+    <col min="23" max="24" width="20.1640625" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" customWidth="1"/>
+    <col min="27" max="27" width="20.83203125" customWidth="1"/>
+    <col min="32" max="32" width="17.33203125" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" customWidth="1"/>
+    <col min="36" max="36" width="19.83203125" customWidth="1"/>
+    <col min="37" max="37" width="19.83203125" style="9" customWidth="1"/>
+    <col min="38" max="38" width="13.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14" customWidth="1"/>
+    <col min="41" max="41" width="16.1640625" customWidth="1"/>
+    <col min="44" max="44" width="20.33203125" customWidth="1"/>
+    <col min="46" max="46" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:48">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:48">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="2">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="6">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0.47520000000000001</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0.1782</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0.47520000000000001</v>
+      </c>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="6">
+        <v>7.51E-2</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="6">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>0.80530000000000002</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="6">
+        <v>7.51E-2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="6">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="T8" s="6">
+        <v>7.51E-2</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>0.4209</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="T9" s="6">
+        <v>7.51E-2</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>0.4209</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM9" s="6">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="T10" s="6">
+        <v>7.51E-2</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>0.4209</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM10" s="6">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0.1085</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>0.59940000000000004</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM11" s="6">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="2">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM12" s="6">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="2">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="T13" s="6">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0.4703</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6">
+        <v>0.4703</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="AL13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="2">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" s="6">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0.2747</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>0.8417</v>
+      </c>
+      <c r="AL14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM14" s="6">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+    </row>
+    <row r="16" spans="1:48">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="6">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X16" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK16" s="8">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM16" s="6">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" s="6">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK17" s="8">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM17" s="6">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="2">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" s="6">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0.2747</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X18" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK18" s="8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM18" s="6">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="2">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S19" s="6">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="T19" s="6">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X19" s="6">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>0.4703</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>0.4703</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK19" s="8">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM19" s="6">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" s="6">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X20" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK20" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="AL20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48">
+      <c r="AD21" s="11"/>
+    </row>
+    <row r="22" spans="1:48">
+      <c r="AD22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AC9DC9-54D3-0D47-AED6-62DBBFE64A4E}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBF4007-1C30-124C-9CD1-F6F8102B4D23}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:8" ht="51">
+      <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="170">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.6">
+      <c r="A4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="68">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="51">
+      <c r="A12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>